--- a/data/KKBOX_summary.xlsx
+++ b/data/KKBOX_summary.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AlitaNet\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38A4FEC7-3A9E-4F45-AE52-F2DCAAC54C6C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD63D6EB-E2E7-40D7-AA80-462AAFB6F496}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8CFFA5A3-4067-4660-B8C8-E79983DA0D55}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="45">
   <si>
     <t>LR</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -76,43 +77,121 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>BiFM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FiBiFM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FiBiNet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ms/epoch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>improvement</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wide&amp;Deep</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Model</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DeepAutoInt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>auc/speed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>public-test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>GBDT</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>BiFM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FiBiFM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>Paper</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GBDT(LightGBM)</t>
+  </si>
+  <si>
+    <t>LR</t>
+  </si>
+  <si>
+    <t>FM</t>
+  </si>
+  <si>
+    <t>NFM</t>
+  </si>
+  <si>
+    <t>FNN(MLP)</t>
+  </si>
+  <si>
+    <t>Wide&amp;Deep</t>
+  </si>
+  <si>
+    <t>DeepFM</t>
+  </si>
+  <si>
+    <t>AFM</t>
+  </si>
+  <si>
+    <t>CFM</t>
+  </si>
+  <si>
+    <t>AutoInt</t>
   </si>
   <si>
     <t>FiBiNet</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ms/epoch</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>improvement</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Wide&amp;Deep</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Model</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DeepAutoInt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>err embdl2</t>
+  </si>
+  <si>
+    <t>[ECIR 2016]Deep Learning over Multi-field Categorical Data: A Case Study on User Response Prediction</t>
+  </si>
+  <si>
+    <t>[DLRS 2016]Wide &amp; Deep Learning for Recommender Systems</t>
+  </si>
+  <si>
+    <t>[IJCAI 2017]DeepFM: A Factorization-Machine based Neural Network for CTR Prediction</t>
+  </si>
+  <si>
+    <t>[IJCAI 2017]Attentional Factorization Machines: Learning the Weight of Feature Interactions via Attention Networks</t>
+  </si>
+  <si>
+    <t>[arxiv 2018]AutoInt: Automatic Feature Interaction Learning via Self-Attentive Neural Networks</t>
+  </si>
+  <si>
+    <t>[RecSys 2019]FiBiNET: Combining Feature Importance and Bilinear feature Interaction for Click-Through Rate Prediction</t>
+  </si>
+  <si>
+    <t>[SIGIR 2017]Neural Factorization Machines for Sparse Predictive Analytics</t>
+  </si>
+  <si>
+    <t>linear baseline</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FM baseline</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GBDT baseline</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>By Franky</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -121,11 +200,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="180" formatCode="0.0000_ "/>
-    <numFmt numFmtId="181" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="183" formatCode="0.00000_ "/>
+    <numFmt numFmtId="176" formatCode="0.0000_ "/>
+    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="178" formatCode="0.00000_ "/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -138,6 +217,15 @@
       <sz val="9"/>
       <name val="等线"/>
       <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -164,17 +252,20 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -192,6 +283,917 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>improvement</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$2:$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>CFM</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>FiBiNet</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>AutoInt</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>DeepAutoInt</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>FiBiFM</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>FM</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>DeepFM</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>BiFM</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Wide&amp;Deep</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>MLP</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>NFM</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>LR</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>AFM</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>GBDT</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$2:$E$15</c:f>
+              <c:numCache>
+                <c:formatCode>0.00000_ </c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>6.3000000000000833</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.8000000000000274</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.5000000000000604</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.1000000000001044</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.9000000000000155</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.7000000000000375</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.2000000000000925</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.8000000000000256</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.1000000000001018</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.8000000000000238</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.8000000000000238</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-4.4999999999999485</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-13.100000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9725-402D-8E18-0A977B055D78}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="100"/>
+        <c:overlap val="-24"/>
+        <c:axId val="708094104"/>
+        <c:axId val="708092464"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="708094104"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="708092464"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="708092464"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00000_ " sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="708094104"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx2">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="207">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk2">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700">
+        <a:solidFill>
+          <a:schemeClr val="lt2"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>213360</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E8B8712-89F5-4F0E-AB84-FE9746834D41}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -491,10 +1493,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36ABD978-C0F8-4DC1-A89A-3B5F03A8407E}">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="F15" sqref="A1:F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -505,11 +1507,13 @@
     <col min="4" max="4" width="16" style="1" customWidth="1"/>
     <col min="5" max="5" width="14.33203125" style="3" customWidth="1"/>
     <col min="6" max="6" width="9.5546875" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" customWidth="1"/>
+    <col min="8" max="8" width="12.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -521,137 +1525,193 @@
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B2" s="1">
-        <v>0.6512</v>
+        <v>0.69069999999999998</v>
       </c>
       <c r="C2" s="1">
-        <v>0.63539999999999996</v>
+        <v>0.65900000000000003</v>
       </c>
       <c r="D2" s="1">
-        <v>0.63959999999999995</v>
+        <v>0.65900000000000003</v>
       </c>
       <c r="E2" s="3">
-        <f>1000*(D2-0.6527)</f>
-        <v>-13.100000000000001</v>
-      </c>
-      <c r="F2" s="2"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" ref="E2:E15" si="0">1000*(D2-0.6527)</f>
+        <v>6.3000000000000833</v>
+      </c>
+      <c r="F2" s="2">
+        <v>2.88</v>
+      </c>
+      <c r="G2">
+        <f t="shared" ref="G2:G14" si="1">E2/F2</f>
+        <v>2.1875000000000289</v>
+      </c>
+      <c r="H2" s="1">
+        <f t="shared" ref="H2:H15" si="2">D2-C2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="B3" s="1">
-        <v>0.67949999999999999</v>
+        <v>0.69030000000000002</v>
       </c>
       <c r="C3" s="1">
-        <v>0.65149999999999997</v>
+        <v>0.65880000000000005</v>
       </c>
       <c r="D3" s="1">
-        <v>0.65269999999999995</v>
+        <v>0.65849999999999997</v>
       </c>
       <c r="E3" s="3">
-        <f t="shared" ref="E3:E15" si="0">1000*(D3-0.6527)</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>5.8000000000000274</v>
       </c>
       <c r="F3" s="2">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="G3">
+        <f t="shared" si="1"/>
+        <v>1.4500000000000068</v>
+      </c>
+      <c r="H3" s="1">
+        <f t="shared" si="2"/>
+        <v>-3.0000000000007798E-4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B4" s="1">
-        <v>0.69230000000000003</v>
+        <v>0.68910000000000005</v>
       </c>
       <c r="C4" s="1">
-        <v>0.66020000000000001</v>
+        <v>0.6583</v>
       </c>
       <c r="D4" s="1">
-        <v>0.65739999999999998</v>
+        <v>0.65820000000000001</v>
       </c>
       <c r="E4" s="3">
         <f t="shared" si="0"/>
-        <v>4.7000000000000375</v>
+        <v>5.5000000000000604</v>
       </c>
       <c r="F4" s="2">
-        <v>1.74</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>14.3</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="1"/>
+        <v>0.3846153846153888</v>
+      </c>
+      <c r="H4" s="1">
+        <f t="shared" si="2"/>
+        <v>-9.9999999999988987E-5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="B5" s="1">
-        <v>0.68820000000000003</v>
+        <v>0.68799999999999994</v>
       </c>
       <c r="C5" s="1">
-        <v>0.65510000000000002</v>
+        <v>0.6573</v>
       </c>
       <c r="D5" s="1">
-        <v>0.65449999999999997</v>
+        <v>0.65780000000000005</v>
       </c>
       <c r="E5" s="3">
         <f t="shared" si="0"/>
-        <v>1.8000000000000238</v>
+        <v>5.1000000000001044</v>
       </c>
       <c r="F5" s="2">
-        <v>1.72</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>14.77</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="1"/>
+        <v>0.34529451591063676</v>
+      </c>
+      <c r="H5" s="1">
+        <f t="shared" si="2"/>
+        <v>5.0000000000005596E-4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B6" s="1">
-        <v>0.68720000000000003</v>
+        <v>0.68820000000000003</v>
       </c>
       <c r="C6" s="1">
-        <v>0.65559999999999996</v>
+        <v>0.65680000000000005</v>
       </c>
       <c r="D6" s="1">
-        <v>0.65449999999999997</v>
+        <v>0.65759999999999996</v>
       </c>
       <c r="E6" s="3">
         <f t="shared" si="0"/>
-        <v>1.8000000000000238</v>
+        <v>4.9000000000000155</v>
       </c>
       <c r="F6" s="2">
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2.86</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="1"/>
+        <v>1.7132867132867187</v>
+      </c>
+      <c r="H6" s="1">
+        <f t="shared" si="2"/>
+        <v>7.9999999999991189E-4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="B7" s="1">
-        <v>0.68859999999999999</v>
+        <v>0.69230000000000003</v>
       </c>
       <c r="C7" s="1">
-        <v>0.65620000000000001</v>
+        <v>0.66020000000000001</v>
       </c>
       <c r="D7" s="1">
-        <v>0.65480000000000005</v>
+        <v>0.65739999999999998</v>
       </c>
       <c r="E7" s="3">
         <f t="shared" si="0"/>
-        <v>2.1000000000001018</v>
+        <v>4.7000000000000375</v>
       </c>
       <c r="F7" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1.74</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="1"/>
+        <v>2.7011494252873778</v>
+      </c>
+      <c r="H7" s="1">
+        <f t="shared" si="2"/>
+        <v>-2.8000000000000247E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -671,151 +1731,334 @@
       <c r="F8" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G8">
+        <f t="shared" si="1"/>
+        <v>2.1000000000000463</v>
+      </c>
+      <c r="H8" s="1">
+        <f t="shared" si="2"/>
+        <v>-1.9999999999997797E-4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B9" s="1">
-        <v>0.68579999999999997</v>
+        <v>0.68769999999999998</v>
       </c>
       <c r="C9" s="1">
-        <v>0.65300000000000002</v>
+        <v>0.65810000000000002</v>
       </c>
       <c r="D9" s="1">
-        <v>0.6482</v>
+        <v>0.65649999999999997</v>
       </c>
       <c r="E9" s="3">
         <f t="shared" si="0"/>
-        <v>-4.4999999999999485</v>
+        <v>3.8000000000000256</v>
       </c>
       <c r="F9" s="2">
-        <v>4.2699999999999996</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2.71</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="1"/>
+        <v>1.4022140221402308</v>
+      </c>
+      <c r="H9" s="1">
+        <f t="shared" si="2"/>
+        <v>-1.6000000000000458E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B10" s="1">
-        <v>0.69069999999999998</v>
+        <v>0.68859999999999999</v>
       </c>
       <c r="C10" s="1">
-        <v>0.65900000000000003</v>
+        <v>0.65620000000000001</v>
       </c>
       <c r="D10" s="1">
-        <v>0.65900000000000003</v>
+        <v>0.65480000000000005</v>
       </c>
       <c r="E10" s="3">
         <f t="shared" si="0"/>
-        <v>6.3000000000000833</v>
-      </c>
-      <c r="F10" s="2"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2.1000000000001018</v>
+      </c>
+      <c r="F10" s="2">
+        <v>2</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="1"/>
+        <v>1.0500000000000509</v>
+      </c>
+      <c r="H10" s="1">
+        <f t="shared" si="2"/>
+        <v>-1.3999999999999568E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B11" s="1">
-        <v>0.68910000000000005</v>
+        <v>0.68820000000000003</v>
       </c>
       <c r="C11" s="1">
-        <v>0.6583</v>
+        <v>0.65510000000000002</v>
       </c>
       <c r="D11" s="1">
-        <v>0.65820000000000001</v>
+        <v>0.65449999999999997</v>
       </c>
       <c r="E11" s="3">
         <f t="shared" si="0"/>
-        <v>5.5000000000000604</v>
-      </c>
-      <c r="F11" s="2"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1.8000000000000238</v>
+      </c>
+      <c r="F11" s="2">
+        <v>1.72</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="1"/>
+        <v>1.0465116279069906</v>
+      </c>
+      <c r="H11" s="1">
+        <f t="shared" si="2"/>
+        <v>-6.0000000000004494E-4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="B12" s="1">
-        <v>0.68859999999999999</v>
+        <v>0.68720000000000003</v>
       </c>
       <c r="C12" s="1">
-        <v>0.65600000000000003</v>
+        <v>0.65559999999999996</v>
       </c>
       <c r="D12" s="1">
-        <v>0.65700000000000003</v>
+        <v>0.65449999999999997</v>
       </c>
       <c r="E12" s="3">
         <f t="shared" si="0"/>
-        <v>4.3000000000000815</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1.8000000000000238</v>
+      </c>
+      <c r="F12" s="2">
+        <v>1.8</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="1"/>
+        <v>1.0000000000000131</v>
+      </c>
+      <c r="H12" s="1">
+        <f t="shared" si="2"/>
+        <v>-1.0999999999999899E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="B13" s="1">
-        <v>0.68769999999999998</v>
+        <v>0.67949999999999999</v>
       </c>
       <c r="C13" s="1">
-        <v>0.65810000000000002</v>
+        <v>0.65149999999999997</v>
       </c>
       <c r="D13" s="1">
-        <v>0.65649999999999997</v>
+        <v>0.65269999999999995</v>
       </c>
       <c r="E13" s="3">
         <f t="shared" si="0"/>
-        <v>3.8000000000000256</v>
-      </c>
-      <c r="F13" s="2"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="F13" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H13" s="1">
+        <f t="shared" si="2"/>
+        <v>1.1999999999999789E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B14" s="1">
-        <v>0.68820000000000003</v>
+        <v>0.68579999999999997</v>
       </c>
       <c r="C14" s="1">
-        <v>0.65680000000000005</v>
+        <v>0.65300000000000002</v>
       </c>
       <c r="D14" s="1">
-        <v>0.65759999999999996</v>
+        <v>0.6482</v>
       </c>
       <c r="E14" s="3">
         <f t="shared" si="0"/>
-        <v>4.9000000000000155</v>
+        <v>-4.4999999999999485</v>
       </c>
       <c r="F14" s="2">
-        <v>2.86</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+        <v>4.2699999999999996</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="1"/>
+        <v>-1.053864168618255</v>
+      </c>
+      <c r="H14" s="1">
+        <f t="shared" si="2"/>
+        <v>-4.8000000000000265E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="B15" s="1">
-        <v>0.69030000000000002</v>
+        <v>0.64700000000000002</v>
       </c>
       <c r="C15" s="1">
-        <v>0.65880000000000005</v>
+        <v>0.63390000000000002</v>
       </c>
       <c r="D15" s="1">
-        <v>0.65849999999999997</v>
+        <v>0.63959999999999995</v>
       </c>
       <c r="E15" s="3">
         <f t="shared" si="0"/>
-        <v>5.8000000000000274</v>
-      </c>
-      <c r="F15" s="2">
-        <v>4</v>
+        <v>-13.100000000000001</v>
+      </c>
+      <c r="H15" s="1">
+        <f t="shared" si="2"/>
+        <v>5.6999999999999273E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A2:H15">
+    <sortCondition descending="1" ref="D1"/>
+  </sortState>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{948234A0-024A-46CC-93CF-2182FE188C78}">
+  <dimension ref="A1:B12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.5546875" customWidth="1"/>
+    <col min="2" max="2" width="86.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/KKBOX_summary.xlsx
+++ b/data/KKBOX_summary.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AlitaNet\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD63D6EB-E2E7-40D7-AA80-462AAFB6F496}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{933EE793-A450-406D-8310-A29F1FA2F7BF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8CFFA5A3-4067-4660-B8C8-E79983DA0D55}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="model reference" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -1495,8 +1495,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36ABD978-C0F8-4DC1-A89A-3B5F03A8407E}">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="F15" sqref="A1:F15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1952,7 +1952,7 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/data/KKBOX_summary.xlsx
+++ b/data/KKBOX_summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AlitaNet\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{933EE793-A450-406D-8310-A29F1FA2F7BF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90D4BB1E-410F-4D38-B903-8BC2C5E9C384}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8CFFA5A3-4067-4660-B8C8-E79983DA0D55}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="46">
   <si>
     <t>LR</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -192,6 +192,10 @@
   </si>
   <si>
     <t>By Franky</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CatBoost</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1493,10 +1497,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36ABD978-C0F8-4DC1-A89A-3B5F03A8407E}">
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1551,7 +1555,7 @@
         <v>0.65900000000000003</v>
       </c>
       <c r="E2" s="3">
-        <f t="shared" ref="E2:E15" si="0">1000*(D2-0.6527)</f>
+        <f t="shared" ref="E2:E16" si="0">1000*(D2-0.6527)</f>
         <v>6.3000000000000833</v>
       </c>
       <c r="F2" s="2">
@@ -1562,7 +1566,7 @@
         <v>2.1875000000000289</v>
       </c>
       <c r="H2" s="1">
-        <f t="shared" ref="H2:H15" si="2">D2-C2</f>
+        <f t="shared" ref="H2:H16" si="2">D2-C2</f>
         <v>0</v>
       </c>
     </row>
@@ -1934,6 +1938,28 @@
       <c r="H15" s="1">
         <f t="shared" si="2"/>
         <v>5.6999999999999273E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16" s="1">
+        <v>0.69450000000000001</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0.66100000000000003</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0.65439999999999998</v>
+      </c>
+      <c r="E16" s="3">
+        <f t="shared" si="0"/>
+        <v>1.7000000000000348</v>
+      </c>
+      <c r="H16" s="1">
+        <f t="shared" si="2"/>
+        <v>-6.6000000000000503E-3</v>
       </c>
     </row>
   </sheetData>
